--- a/python/invoices_master.xlsx
+++ b/python/invoices_master.xlsx
@@ -1,91 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\evolveu\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A005E-9D54-4E06-A2F3-0A935973F617}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{82468A8D-9950-43B5-8B11-63209BEF58F9}"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13276" windowWidth="20715" xWindow="-98" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="customers" sheetId="1" r:id="rId1"/>
-    <sheet name="invoices" sheetId="2" r:id="rId2"/>
-    <sheet name="line_items" sheetId="3" r:id="rId3"/>
-    <sheet name="products" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="customers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invoices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="line_items" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="products" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>invoice_date</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>cust_id</t>
-  </si>
-  <si>
-    <t>invoice_num</t>
-  </si>
-  <si>
-    <t>prod_id</t>
-  </si>
-  <si>
-    <t>prod_name</t>
-  </si>
-  <si>
-    <t>prod_cost</t>
-  </si>
-  <si>
-    <t>cust_name</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,26 +54,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -420,242 +367,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BF115F-5AA8-4253-812E-4BA511FBAB40}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.53125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="15.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" r="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>cust_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>cust_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tiger Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jack Nicklaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nick Faldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brooke Henerson</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brooks Koepka</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>8</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ricky Fowler</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adam Scott</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brooke Henerson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dustin Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bobby Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lorena Ochoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tommy Fleetwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E85A0E-46C4-4FD2-A51D-A16CD3D793C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.19921875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="6.53125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.1328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C41" s="1"/>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>invoice_num</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>cust_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>invoice_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="1" t="n"/>
     </row>
   </sheetData>
-  <sortState ref="H2:H41">
-    <sortCondition ref="H2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEB965-543B-4620-86C0-F3FFE60B6A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="11.19921875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="7.06640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>invoice_num</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>prod_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0E74D6-2588-4FD7-B820-B3088156C23F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="7.06640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.1328125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.86328125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>prod_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>prod_name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>prod_cost</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>